--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H2">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I2">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J2">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,22 +558,22 @@
         <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q2">
-        <v>0.8816448666666666</v>
+        <v>0.05881503427555555</v>
       </c>
       <c r="R2">
-        <v>7.9348038</v>
+        <v>0.52933530848</v>
       </c>
       <c r="S2">
-        <v>0.8017491693731911</v>
+        <v>0.04129698294134512</v>
       </c>
       <c r="T2">
-        <v>0.8017491693731911</v>
+        <v>0.04129698294134513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H3">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I3">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J3">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N3">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q3">
-        <v>0.1243367475</v>
+        <v>0.02411967893822222</v>
       </c>
       <c r="R3">
-        <v>1.1190307275</v>
+        <v>0.217077110444</v>
       </c>
       <c r="S3">
-        <v>0.1130692048461491</v>
+        <v>0.01693563528324707</v>
       </c>
       <c r="T3">
-        <v>0.1130692048461491</v>
+        <v>0.01693563528324707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,13 +643,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -655,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H4">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I4">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J4">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,22 +682,22 @@
         <v>5.12336</v>
       </c>
       <c r="O4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q4">
-        <v>0.08209273580444444</v>
+        <v>0.8816448666666666</v>
       </c>
       <c r="R4">
-        <v>0.73883462224</v>
+        <v>7.9348038</v>
       </c>
       <c r="S4">
-        <v>0.07465339529694173</v>
+        <v>0.6190470424360544</v>
       </c>
       <c r="T4">
-        <v>0.07465339529694173</v>
+        <v>0.6190470424360545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -717,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H5">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I5">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J5">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +738,152 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N5">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q5">
-        <v>0.011577386938</v>
+        <v>0.3615570641666667</v>
       </c>
       <c r="R5">
-        <v>0.104196482442</v>
+        <v>3.2540135775</v>
       </c>
       <c r="S5">
-        <v>0.01052823048371805</v>
+        <v>0.2538673333294189</v>
       </c>
       <c r="T5">
-        <v>0.01052823048371805</v>
+        <v>0.253867333329419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.122161</v>
+      </c>
+      <c r="I6">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J6">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.707786666666667</v>
+      </c>
+      <c r="N6">
+        <v>5.12336</v>
+      </c>
+      <c r="O6">
+        <v>0.7091726973716084</v>
+      </c>
+      <c r="P6">
+        <v>0.7091726973716084</v>
+      </c>
+      <c r="Q6">
+        <v>0.06954164232888889</v>
+      </c>
+      <c r="R6">
+        <v>0.62587478096</v>
+      </c>
+      <c r="S6">
+        <v>0.04882867199420877</v>
+      </c>
+      <c r="T6">
+        <v>0.04882867199420877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.122161</v>
+      </c>
+      <c r="I7">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J7">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7003526666666667</v>
+      </c>
+      <c r="N7">
+        <v>2.101058</v>
+      </c>
+      <c r="O7">
+        <v>0.2908273026283917</v>
+      </c>
+      <c r="P7">
+        <v>0.2908273026283917</v>
+      </c>
+      <c r="Q7">
+        <v>0.02851859403755556</v>
+      </c>
+      <c r="R7">
+        <v>0.256667346338</v>
+      </c>
+      <c r="S7">
+        <v>0.02002433401572568</v>
+      </c>
+      <c r="T7">
+        <v>0.02002433401572568</v>
       </c>
     </row>
   </sheetData>
